--- a/Training/LSTM_LTC_result2.xlsx
+++ b/Training/LSTM_LTC_result2.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>0.855274522833532</v>
+        <v>0.9471582164306035</v>
       </c>
       <c r="F1" t="n">
-        <v>0.6459841753311959</v>
+        <v>0.7119918153080842</v>
       </c>
       <c r="G1" t="n">
-        <v>1.099798144072956</v>
+        <v>1.185635799413918</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9632048546359079</v>
+        <v>0.9469520838584156</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7538589749295025</v>
+        <v>0.7220926808636239</v>
       </c>
       <c r="G2" t="n">
-        <v>1.293530720966922</v>
+        <v>1.211768833566247</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7694277021979301</v>
+        <v>0.8123978979460702</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5591648104884781</v>
+        <v>0.5852769902887576</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9327078576436488</v>
+        <v>0.9589973987332303</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7601482982512341</v>
+        <v>0.8024396850352886</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5617523599674098</v>
+        <v>0.589802272147476</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9454880524261607</v>
+        <v>0.9761150320513871</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7564781214116756</v>
+        <v>0.8509838632319624</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5448520857254889</v>
+        <v>0.6213995073074133</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8970879562179546</v>
+        <v>1.01266070198053</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8440090693495704</v>
+        <v>0.8109329891723276</v>
       </c>
       <c r="F6" t="n">
-        <v>0.63906516300315</v>
+        <v>0.5932400845004312</v>
       </c>
       <c r="G6" t="n">
-        <v>1.070320773619371</v>
+        <v>0.9749508405470789</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8439705584332946</v>
+        <v>0.8198385642268173</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6634502908228457</v>
+        <v>0.6333830183331869</v>
       </c>
       <c r="G7" t="n">
-        <v>1.164418247752359</v>
+        <v>1.087647320101598</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>0.70613838607132</v>
+        <v>0.7234223666452535</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5199087531449805</v>
+        <v>0.5324035292382903</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8801288249365857</v>
+        <v>0.8945515186902074</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6960498731248392</v>
+        <v>0.6780575561861395</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5108891665763738</v>
+        <v>0.4945588489189652</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8660727882767443</v>
+        <v>0.8412047160707724</v>
       </c>
     </row>
   </sheetData>
